--- a/заказы/Ташкент/2025/03,25/03,03,25 Ост КИ Ташкент/дв 03,03,25 тшрсч ост ки от Лыгина.xlsx
+++ b/заказы/Ташкент/2025/03,25/03,03,25 Ост КИ Ташкент/дв 03,03,25 тшрсч ост ки от Лыгина.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\03,03,25 Ост КИ Ташкент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\Ташкент\2025\03,25\03,03,25 Ост КИ Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9C8E6A-38C2-442E-AB8F-444D59AA1250}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF255D37-3DEE-448A-816B-790D8DC5D4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>ср нов</t>
-  </si>
-  <si>
-    <t>расчет</t>
   </si>
   <si>
     <t>заказ филиала</t>
@@ -181,6 +178,12 @@
   </si>
   <si>
     <t>6853 МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о мгс 1*6  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>заказ</t>
+  </si>
+  <si>
+    <t>11,03,</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W31" sqref="W31"/>
+      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,31 +778,31 @@
         <v>14</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
@@ -844,21 +847,23 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
@@ -984,10 +989,10 @@
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C6" s="1">
         <v>75.42</v>
@@ -1042,7 +1047,7 @@
         <v>36.975200000000001</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X6" s="1">
         <f t="shared" ref="X6:X24" si="2">G6*P6</f>
@@ -1078,10 +1083,10 @@
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C7" s="1">
         <v>325</v>
@@ -1172,10 +1177,10 @@
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1">
         <v>301.858</v>
@@ -1230,7 +1235,7 @@
         <v>39.964799999999997</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X8" s="1">
         <f t="shared" si="2"/>
@@ -1266,10 +1271,10 @@
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1">
         <v>239</v>
@@ -1356,10 +1361,10 @@
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
         <v>778</v>
@@ -1414,7 +1419,7 @@
         <v>86.6</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X10" s="1">
         <f t="shared" si="2"/>
@@ -1450,10 +1455,10 @@
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1">
         <v>58.286999999999999</v>
@@ -1508,7 +1513,7 @@
         <v>27.421800000000001</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X11" s="1">
         <f t="shared" si="2"/>
@@ -1544,10 +1549,10 @@
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
         <v>340</v>
@@ -1602,7 +1607,7 @@
         <v>88.8</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X12" s="1">
         <f t="shared" si="2"/>
@@ -1638,10 +1643,10 @@
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1">
         <v>137.78399999999999</v>
@@ -1696,7 +1701,7 @@
         <v>28.0412</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X13" s="1">
         <f t="shared" si="2"/>
@@ -1732,10 +1737,10 @@
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
         <v>1.0999999999999999E-2</v>
@@ -1820,10 +1825,10 @@
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1">
         <v>42.308999999999997</v>
@@ -1914,10 +1919,10 @@
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1">
         <v>179.12100000000001</v>
@@ -1968,7 +1973,7 @@
         <v>5.9805999999999999</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" si="2"/>
@@ -2004,10 +2009,10 @@
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1">
         <v>881</v>
@@ -2058,7 +2063,7 @@
         <v>26.8</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" si="2"/>
@@ -2094,10 +2099,10 @@
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1">
         <v>2877</v>
@@ -2148,7 +2153,7 @@
         <v>45</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X18" s="1">
         <f t="shared" si="2"/>
@@ -2184,10 +2189,10 @@
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1">
         <v>8.5649999999999995</v>
@@ -2276,10 +2281,10 @@
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1">
         <v>234</v>
@@ -2366,10 +2371,10 @@
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1">
@@ -2422,7 +2427,7 @@
         <v>167</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X21" s="1">
         <f t="shared" si="2"/>
@@ -2458,10 +2463,10 @@
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
         <v>230</v>
@@ -2516,7 +2521,7 @@
         <v>74.8</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X22" s="1">
         <f t="shared" si="2"/>
@@ -2552,10 +2557,10 @@
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1">
         <v>44.073999999999998</v>
@@ -2646,10 +2651,10 @@
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1">
         <v>0.39200000000000002</v>
